--- a/Proyecto/DatosInformeTiempo.xlsx
+++ b/Proyecto/DatosInformeTiempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alba\Escritorio\1.UEM\2021-2022\1 cuatrimestre\Proyecto\Proyecto matlab\TrackMotion\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\MATLAB\Proyecto\TrackMotion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86707130-30D3-494A-A2E9-17CCEAC61243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76869C17-1CC9-41D3-9132-159630E4D3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F0D71B42-176C-45BE-B55B-A169AC797579}"/>
+    <workbookView xWindow="5088" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{F0D71B42-176C-45BE-B55B-A169AC797579}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2.916032362754736</v>
+        <v>2.831537098501375</v>
       </c>
       <c r="E2">
-        <v>23.076468444976413</v>
+        <v>23.148801588404311</v>
       </c>
       <c r="F2">
-        <v>63.076468444976413</v>
+        <v>63.148801588404311</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -492,13 +492,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.916032362754736</v>
+        <v>2.831537098501375</v>
       </c>
       <c r="E3">
-        <v>28.764210447661391</v>
+        <v>27.897139539650425</v>
       </c>
       <c r="F3">
-        <v>38.764210447661391</v>
+        <v>37.897139539650425</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -515,13 +515,13 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.916032362754736</v>
+        <v>2.831537098501375</v>
       </c>
       <c r="E4">
-        <v>55.289608813395091</v>
+        <v>54.612895302819453</v>
       </c>
       <c r="F4">
-        <v>122.28960881339509</v>
+        <v>121.61289530281945</v>
       </c>
       <c r="G4">
         <v>67</v>
@@ -538,16 +538,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.916032362754736</v>
+        <v>2.831537098501375</v>
       </c>
       <c r="E5">
-        <v>41.043910007591627</v>
+        <v>43.435896402637667</v>
       </c>
       <c r="F5">
-        <v>56.715753767085332</v>
+        <v>58.291882798300485</v>
       </c>
       <c r="G5">
-        <v>15.671843759493706</v>
+        <v>14.855986395662821</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -561,13 +561,13 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2.916032362754736</v>
+        <v>2.831537098501375</v>
       </c>
       <c r="E6">
-        <v>16.21560143042208</v>
+        <v>15.072481106160144</v>
       </c>
       <c r="F6">
-        <v>21.21560143042208</v>
+        <v>20.072481106160144</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -584,16 +584,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2.916032362754736</v>
+        <v>2.831537098501375</v>
       </c>
       <c r="E7">
-        <v>8.3810070576579392</v>
+        <v>5.1543179263880106</v>
       </c>
       <c r="F7">
-        <v>30.217536263056566</v>
+        <v>29.595555604189602</v>
       </c>
       <c r="G7">
-        <v>21.836529205398627</v>
+        <v>24.441237677801592</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/DatosInformeTiempo.xlsx
+++ b/Proyecto/DatosInformeTiempo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\MATLAB\Proyecto\TrackMotion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76869C17-1CC9-41D3-9132-159630E4D3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44962C0-E87F-4971-9435-E76FDD8F5AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5088" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{F0D71B42-176C-45BE-B55B-A169AC797579}"/>
   </bookViews>
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2.831537098501375</v>
+        <v>2.2191615645251384</v>
       </c>
       <c r="E2">
-        <v>23.148801588404311</v>
+        <v>21.736090032386123</v>
       </c>
       <c r="F2">
-        <v>63.148801588404311</v>
+        <v>61.736090032386123</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -492,13 +492,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.831537098501375</v>
+        <v>2.2191615645251384</v>
       </c>
       <c r="E3">
-        <v>27.897139539650425</v>
+        <v>27.069294680578778</v>
       </c>
       <c r="F3">
-        <v>37.897139539650425</v>
+        <v>37.069294680578778</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -515,13 +515,13 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.831537098501375</v>
+        <v>2.2191615645251384</v>
       </c>
       <c r="E4">
-        <v>54.612895302819453</v>
+        <v>56.012386217783373</v>
       </c>
       <c r="F4">
-        <v>121.61289530281945</v>
+        <v>123.01238621778337</v>
       </c>
       <c r="G4">
         <v>67</v>
@@ -538,16 +538,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.831537098501375</v>
+        <v>2.2191615645251384</v>
       </c>
       <c r="E5">
-        <v>43.435896402637667</v>
+        <v>40.141750502071893</v>
       </c>
       <c r="F5">
-        <v>58.291882798300485</v>
+        <v>56.911039069507694</v>
       </c>
       <c r="G5">
-        <v>14.855986395662821</v>
+        <v>16.769288567435801</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -561,13 +561,13 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2.831537098501375</v>
+        <v>2.2191615645251384</v>
       </c>
       <c r="E6">
-        <v>15.072481106160144</v>
+        <v>15.523885795939226</v>
       </c>
       <c r="F6">
-        <v>20.072481106160144</v>
+        <v>20.523885795939226</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -584,16 +584,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2.831537098501375</v>
+        <v>2.2191615645251384</v>
       </c>
       <c r="E7">
-        <v>5.1543179263880106</v>
+        <v>6.4061256615912221</v>
       </c>
       <c r="F7">
-        <v>29.595555604189602</v>
+        <v>29.926900074084656</v>
       </c>
       <c r="G7">
-        <v>24.441237677801592</v>
+        <v>23.520774412493434</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/DatosInformeTiempo.xlsx
+++ b/Proyecto/DatosInformeTiempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\MATLAB\Proyecto\TrackMotion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44962C0-E87F-4971-9435-E76FDD8F5AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2017913E-42E1-4FA7-9396-B46BD00A387B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5088" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{F0D71B42-176C-45BE-B55B-A169AC797579}"/>
   </bookViews>
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2.2191615645251384</v>
+        <v>3.6190932362854147</v>
       </c>
       <c r="E2">
-        <v>21.736090032386123</v>
+        <v>22.217568997401486</v>
       </c>
       <c r="F2">
-        <v>61.736090032386123</v>
+        <v>62.217568997401486</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -492,13 +492,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.2191615645251384</v>
+        <v>3.6190932362854147</v>
       </c>
       <c r="E3">
-        <v>27.069294680578778</v>
+        <v>28.167094291677486</v>
       </c>
       <c r="F3">
-        <v>37.069294680578778</v>
+        <v>38.167094291677486</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -515,13 +515,13 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.2191615645251384</v>
+        <v>3.6190932362854147</v>
       </c>
       <c r="E4">
-        <v>56.012386217783373</v>
+        <v>57.249340036856836</v>
       </c>
       <c r="F4">
-        <v>123.01238621778337</v>
+        <v>124.24934003685684</v>
       </c>
       <c r="G4">
         <v>67</v>
@@ -538,16 +538,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.2191615645251384</v>
+        <v>3.6190932362854147</v>
       </c>
       <c r="E5">
-        <v>40.141750502071893</v>
+        <v>40.096376724716187</v>
       </c>
       <c r="F5">
-        <v>56.911039069507694</v>
+        <v>57.940176956747095</v>
       </c>
       <c r="G5">
-        <v>16.769288567435801</v>
+        <v>17.843800232030908</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -561,13 +561,13 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2.2191615645251384</v>
+        <v>3.6190932362854147</v>
       </c>
       <c r="E6">
-        <v>15.523885795939226</v>
+        <v>15.099588005361984</v>
       </c>
       <c r="F6">
-        <v>20.523885795939226</v>
+        <v>20.099588005361984</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -584,16 +584,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2.2191615645251384</v>
+        <v>3.6190932362854147</v>
       </c>
       <c r="E7">
-        <v>6.4061256615912221</v>
+        <v>6.6305821361587753</v>
       </c>
       <c r="F7">
-        <v>29.926900074084656</v>
+        <v>28.995077799842932</v>
       </c>
       <c r="G7">
-        <v>23.520774412493434</v>
+        <v>22.364495663684156</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/DatosInformeTiempo.xlsx
+++ b/Proyecto/DatosInformeTiempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\MATLAB\Proyecto\TrackMotion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2017913E-42E1-4FA7-9396-B46BD00A387B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B6F631-37B1-4650-91EB-C073392B8491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5088" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{F0D71B42-176C-45BE-B55B-A169AC797579}"/>
   </bookViews>
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3.6190932362854147</v>
+        <v>2.3693201918017883</v>
       </c>
       <c r="E2">
-        <v>22.217568997401486</v>
+        <v>22.280607859185409</v>
       </c>
       <c r="F2">
-        <v>62.217568997401486</v>
+        <v>62.280607859185409</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -492,13 +492,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>3.6190932362854147</v>
+        <v>2.3693201918017883</v>
       </c>
       <c r="E3">
-        <v>28.167094291677486</v>
+        <v>28.14764451011628</v>
       </c>
       <c r="F3">
-        <v>38.167094291677486</v>
+        <v>38.14764451011628</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -515,16 +515,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3.6190932362854147</v>
+        <v>2.3693201918017883</v>
       </c>
       <c r="E4">
-        <v>57.249340036856836</v>
+        <v>59.088458646928203</v>
       </c>
       <c r="F4">
-        <v>124.24934003685684</v>
+        <v>124.80380613563264</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>65.715347488704438</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -538,16 +538,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3.6190932362854147</v>
+        <v>2.3693201918017883</v>
       </c>
       <c r="E5">
-        <v>40.096376724716187</v>
+        <v>42.827790004818489</v>
       </c>
       <c r="F5">
-        <v>57.940176956747095</v>
+        <v>59.045339536311445</v>
       </c>
       <c r="G5">
-        <v>17.843800232030908</v>
+        <v>16.217549531492956</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -561,13 +561,13 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3.6190932362854147</v>
+        <v>2.3693201918017883</v>
       </c>
       <c r="E6">
-        <v>15.099588005361984</v>
+        <v>16.167248624718191</v>
       </c>
       <c r="F6">
-        <v>20.099588005361984</v>
+        <v>21.167248624718191</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -584,16 +584,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>3.6190932362854147</v>
+        <v>2.3693201918017883</v>
       </c>
       <c r="E7">
-        <v>6.6305821361587753</v>
+        <v>6.9307861150254233</v>
       </c>
       <c r="F7">
-        <v>28.995077799842932</v>
+        <v>29.749995758915404</v>
       </c>
       <c r="G7">
-        <v>22.364495663684156</v>
+        <v>22.81920964388998</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/DatosInformeTiempo.xlsx
+++ b/Proyecto/DatosInformeTiempo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\MATLAB\Proyecto\TrackMotion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B6F631-37B1-4650-91EB-C073392B8491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEBBB65-63B1-4E32-BE45-02E0CB438081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5088" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{F0D71B42-176C-45BE-B55B-A169AC797579}"/>
   </bookViews>
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2.3693201918017883</v>
+        <v>3.1630582828778939</v>
       </c>
       <c r="E2">
-        <v>22.280607859185409</v>
+        <v>22.766119664709599</v>
       </c>
       <c r="F2">
-        <v>62.280607859185409</v>
+        <v>62.766119664709599</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -492,13 +492,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.3693201918017883</v>
+        <v>3.1630582828778939</v>
       </c>
       <c r="E3">
-        <v>28.14764451011628</v>
+        <v>27.584322146324624</v>
       </c>
       <c r="F3">
-        <v>38.14764451011628</v>
+        <v>37.584322146324624</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -515,16 +515,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.3693201918017883</v>
+        <v>3.1630582828778939</v>
       </c>
       <c r="E4">
-        <v>59.088458646928203</v>
+        <v>55.401632456862458</v>
       </c>
       <c r="F4">
-        <v>124.80380613563264</v>
+        <v>122.40163245686246</v>
       </c>
       <c r="G4">
-        <v>65.715347488704438</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -538,16 +538,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.3693201918017883</v>
+        <v>3.1630582828778939</v>
       </c>
       <c r="E5">
-        <v>42.827790004818489</v>
+        <v>45.000602558450922</v>
       </c>
       <c r="F5">
-        <v>59.045339536311445</v>
+        <v>59.270003022568304</v>
       </c>
       <c r="G5">
-        <v>16.217549531492956</v>
+        <v>14.269400464117378</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -561,13 +561,13 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2.3693201918017883</v>
+        <v>3.1630582828778939</v>
       </c>
       <c r="E6">
-        <v>16.167248624718191</v>
+        <v>16.441763801301953</v>
       </c>
       <c r="F6">
-        <v>21.167248624718191</v>
+        <v>21.441763801301953</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -584,16 +584,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2.3693201918017883</v>
+        <v>3.1630582828778939</v>
       </c>
       <c r="E7">
-        <v>6.9307861150254233</v>
+        <v>5.9556667050023648</v>
       </c>
       <c r="F7">
-        <v>29.749995758915404</v>
+        <v>28.79986065065221</v>
       </c>
       <c r="G7">
-        <v>22.81920964388998</v>
+        <v>22.844193945649845</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto/DatosInformeTiempo.xlsx
+++ b/Proyecto/DatosInformeTiempo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arang\MATLAB\Proyecto\TrackMotion\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEBBB65-63B1-4E32-BE45-02E0CB438081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C18DA1-B995-499B-A6C5-7FB9293C4751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5088" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{F0D71B42-176C-45BE-B55B-A169AC797579}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{F0D71B42-176C-45BE-B55B-A169AC797579}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3.1630582828778939</v>
+        <v>1.3286141403848211</v>
       </c>
       <c r="E2">
-        <v>22.766119664709599</v>
+        <v>21.564231134850125</v>
       </c>
       <c r="F2">
-        <v>62.766119664709599</v>
+        <v>61.564231134850125</v>
       </c>
       <c r="G2">
         <v>40</v>
@@ -492,13 +492,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>3.1630582828778939</v>
+        <v>1.3286141403848211</v>
       </c>
       <c r="E3">
-        <v>27.584322146324624</v>
+        <v>26.128172917308774</v>
       </c>
       <c r="F3">
-        <v>37.584322146324624</v>
+        <v>36.128172917308774</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -515,16 +515,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3.1630582828778939</v>
+        <v>1.3286141403848211</v>
       </c>
       <c r="E4">
-        <v>55.401632456862458</v>
+        <v>56.180337911826157</v>
       </c>
       <c r="F4">
-        <v>122.40163245686246</v>
+        <v>122.34847158178303</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>66.168133669956873</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -538,16 +538,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>3.1630582828778939</v>
+        <v>1.3286141403848211</v>
       </c>
       <c r="E5">
-        <v>45.000602558450922</v>
+        <v>43.022329637746203</v>
       </c>
       <c r="F5">
-        <v>59.270003022568304</v>
+        <v>58.088022111120132</v>
       </c>
       <c r="G5">
-        <v>14.269400464117378</v>
+        <v>15.065692473373927</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -561,13 +561,13 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3.1630582828778939</v>
+        <v>1.3286141403848211</v>
       </c>
       <c r="E6">
-        <v>16.441763801301953</v>
+        <v>16.950973084030657</v>
       </c>
       <c r="F6">
-        <v>21.441763801301953</v>
+        <v>21.950973084030657</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -584,16 +584,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>3.1630582828778939</v>
+        <v>1.3286141403848211</v>
       </c>
       <c r="E7">
-        <v>5.9556667050023648</v>
+        <v>6.4177080374461148</v>
       </c>
       <c r="F7">
-        <v>28.79986065065221</v>
+        <v>29.171756812537801</v>
       </c>
       <c r="G7">
-        <v>22.844193945649845</v>
+        <v>22.754048775091686</v>
       </c>
     </row>
   </sheetData>
